--- a/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育在校学生数.xlsx
+++ b/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育在校学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,480 +528,464 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>318.0957</v>
+        <v>306.9943</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>433.981</v>
+        <v>442.1129</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>1134.1694</v>
+        <v>1399.4694</v>
       </c>
       <c r="H2" t="n">
-        <v>433.8852</v>
+        <v>442.1129</v>
       </c>
       <c r="I2" t="n">
-        <v>502.8766</v>
+        <v>537.6255</v>
       </c>
       <c r="J2" t="n">
-        <v>230.1299</v>
+        <v>230.0706</v>
       </c>
       <c r="K2" t="n">
-        <v>22.3611</v>
+        <v>21.3403</v>
       </c>
       <c r="L2" t="n">
-        <v>241.3707</v>
+        <v>260.3177</v>
       </c>
       <c r="M2" t="n">
-        <v>219.0096</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0958</v>
-      </c>
+        <v>238.9774</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>548.2256</v>
+        <v>537.0649</v>
       </c>
       <c r="P2" t="n">
-        <v>193.664</v>
+        <v>195.6961</v>
       </c>
       <c r="Q2" t="n">
-        <v>446.1395</v>
+        <v>476.6845</v>
       </c>
       <c r="R2" t="n">
-        <v>252.4755</v>
+        <v>280.9884</v>
       </c>
       <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>306.9943</v>
+        <v>269.2512</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>442.1129</v>
+        <v>442.5616</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1399.4694</v>
+        <v>1694.209</v>
       </c>
       <c r="H3" t="n">
-        <v>442.1129</v>
+        <v>442.5616</v>
       </c>
       <c r="I3" t="n">
-        <v>537.6255</v>
+        <v>567.8255</v>
       </c>
       <c r="J3" t="n">
-        <v>230.0706</v>
+        <v>234.9833</v>
       </c>
       <c r="K3" t="n">
-        <v>21.3403</v>
+        <v>17.5738</v>
       </c>
       <c r="L3" t="n">
-        <v>260.3177</v>
+        <v>267.4448</v>
       </c>
       <c r="M3" t="n">
-        <v>238.9774</v>
+        <v>249.871</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>537.0649</v>
+        <v>504.2345</v>
       </c>
       <c r="P3" t="n">
-        <v>195.6961</v>
+        <v>193.2451</v>
       </c>
       <c r="Q3" t="n">
-        <v>476.6845</v>
+        <v>505.0687</v>
       </c>
       <c r="R3" t="n">
-        <v>280.9884</v>
+        <v>311.8236</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>269.2512</v>
+        <v>240.88</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>442.5616</v>
+        <v>451.4091</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>1694.209</v>
+        <v>1852.7444</v>
       </c>
       <c r="H4" t="n">
-        <v>442.5616</v>
+        <v>451.4091</v>
       </c>
       <c r="I4" t="n">
-        <v>567.8255</v>
+        <v>597.8535000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>234.9833</v>
+        <v>234.9575</v>
       </c>
       <c r="K4" t="n">
-        <v>17.5738</v>
+        <v>16.249</v>
       </c>
       <c r="L4" t="n">
-        <v>267.4448</v>
+        <v>278.3983</v>
       </c>
       <c r="M4" t="n">
-        <v>249.871</v>
+        <v>262.1493</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>504.2345</v>
+        <v>475.8375</v>
       </c>
       <c r="P4" t="n">
-        <v>193.2451</v>
+        <v>191.9358</v>
       </c>
       <c r="Q4" t="n">
-        <v>505.0687</v>
+        <v>533.177</v>
       </c>
       <c r="R4" t="n">
-        <v>311.8236</v>
+        <v>341.2257</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>240.88</v>
+        <v>207.9408</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>451.4091</v>
+        <v>462.3482</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>1852.7444</v>
+        <v>1990.2536</v>
       </c>
       <c r="H5" t="n">
-        <v>451.4091</v>
+        <v>462.3482</v>
       </c>
       <c r="I5" t="n">
-        <v>597.8535000000001</v>
+        <v>628.6015</v>
       </c>
       <c r="J5" t="n">
-        <v>234.9575</v>
+        <v>231.6445</v>
       </c>
       <c r="K5" t="n">
-        <v>16.249</v>
+        <v>15.0206</v>
       </c>
       <c r="L5" t="n">
-        <v>278.3983</v>
+        <v>275.8465</v>
       </c>
       <c r="M5" t="n">
-        <v>262.1493</v>
+        <v>260.8259</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>475.8375</v>
+        <v>439.5853</v>
       </c>
       <c r="P5" t="n">
-        <v>191.9358</v>
+        <v>195.852</v>
       </c>
       <c r="Q5" t="n">
-        <v>533.177</v>
+        <v>557.5218</v>
       </c>
       <c r="R5" t="n">
-        <v>341.2257</v>
+        <v>361.6363</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>207.9408</v>
+        <v>189.5744</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>462.3482</v>
+        <v>487.0018</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1990.2536</v>
+        <v>2125.3781</v>
       </c>
       <c r="H6" t="n">
-        <v>462.3482</v>
+        <v>486.995</v>
       </c>
       <c r="I6" t="n">
-        <v>628.6015</v>
+        <v>674.1425</v>
       </c>
       <c r="J6" t="n">
-        <v>231.6445</v>
+        <v>238.6542</v>
       </c>
       <c r="K6" t="n">
-        <v>15.0206</v>
+        <v>13.6229</v>
       </c>
       <c r="L6" t="n">
-        <v>275.8465</v>
+        <v>269.0625</v>
       </c>
       <c r="M6" t="n">
-        <v>260.8259</v>
+        <v>255.4396</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>439.5853</v>
+        <v>428.2286</v>
       </c>
       <c r="P6" t="n">
-        <v>195.852</v>
+        <v>212.2803</v>
       </c>
       <c r="Q6" t="n">
-        <v>557.5218</v>
+        <v>587.1547</v>
       </c>
       <c r="R6" t="n">
-        <v>361.6363</v>
+        <v>374.8336</v>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>189.5744</v>
+        <v>183.3658</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>487.0018</v>
+        <v>502.9261</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>2125.3781</v>
+        <v>2302.4429</v>
       </c>
       <c r="H7" t="n">
-        <v>486.995</v>
+        <v>502.9229</v>
       </c>
       <c r="I7" t="n">
-        <v>674.1425</v>
+        <v>713.8225</v>
       </c>
       <c r="J7" t="n">
-        <v>238.6542</v>
+        <v>256.9644</v>
       </c>
       <c r="K7" t="n">
-        <v>13.6229</v>
+        <v>11.7409</v>
       </c>
       <c r="L7" t="n">
-        <v>269.0625</v>
+        <v>259.4243</v>
       </c>
       <c r="M7" t="n">
-        <v>255.4396</v>
+        <v>247.6834</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>428.2286</v>
+        <v>440.3302</v>
       </c>
       <c r="P7" t="n">
-        <v>212.2803</v>
+        <v>227.5188</v>
       </c>
       <c r="Q7" t="n">
-        <v>587.1547</v>
+        <v>610.9013</v>
       </c>
       <c r="R7" t="n">
-        <v>374.8336</v>
+        <v>383.3316</v>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>183.3658</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>502.9261</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>75.5553</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>846.7954999999999</v>
+      </c>
       <c r="G8" t="n">
-        <v>2302.4429</v>
-      </c>
-      <c r="H8" t="n">
-        <v>502.9229</v>
-      </c>
+        <v>2437.6589</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>713.8225</v>
+        <v>756.3291</v>
       </c>
       <c r="J8" t="n">
-        <v>256.9644</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.7409</v>
-      </c>
-      <c r="L8" t="n">
-        <v>259.4243</v>
-      </c>
-      <c r="M8" t="n">
-        <v>247.6834</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>440.3302</v>
-      </c>
-      <c r="P8" t="n">
-        <v>227.5188</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>610.9013</v>
-      </c>
-      <c r="R8" t="n">
-        <v>383.3316</v>
-      </c>
+        <v>279.0794</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>75.5553</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>222.2091</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>577.6835</v>
+      </c>
       <c r="F9" t="n">
-        <v>846.7954999999999</v>
+        <v>901.4369</v>
       </c>
       <c r="G9" t="n">
-        <v>2437.6589</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>2572.3434</v>
+      </c>
+      <c r="H9" t="n">
+        <v>577.6778</v>
+      </c>
       <c r="I9" t="n">
-        <v>756.3291</v>
+        <v>814.172</v>
       </c>
       <c r="J9" t="n">
-        <v>279.0794</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>0.0051</v>
-      </c>
+        <v>306.2608</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.1278</v>
+      </c>
+      <c r="L9" t="n">
+        <v>248.4741</v>
+      </c>
+      <c r="M9" t="n">
+        <v>238.3463</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>246.4354</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>899.8533</v>
+      </c>
+      <c r="R9" t="n">
+        <v>404.7501</v>
+      </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>222.2091</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>577.6835</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>8.5017</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>901.4369</v>
+        <v>910.0988</v>
       </c>
       <c r="G10" t="n">
-        <v>2572.3434</v>
-      </c>
-      <c r="H10" t="n">
-        <v>577.6778</v>
-      </c>
+        <v>2639.7847</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>814.172</v>
+        <v>884.5746</v>
       </c>
       <c r="J10" t="n">
-        <v>306.2608</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.1278</v>
-      </c>
-      <c r="L10" t="n">
-        <v>248.4741</v>
-      </c>
-      <c r="M10" t="n">
-        <v>238.3463</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>328.2687</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0.0101</v>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>246.4354</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>899.8533</v>
-      </c>
-      <c r="R10" t="n">
-        <v>404.7501</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>8.5017</v>
+        <v>9.010300000000001</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>910.0988</v>
+        <v>1075.4715</v>
       </c>
       <c r="G11" t="n">
-        <v>2639.7847</v>
+        <v>2649.4401</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>884.5746</v>
+        <v>944.9050999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>328.2687</v>
+        <v>359.6765</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0.0101</v>
+        <v>0.0091</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1012,33 +996,33 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>9.010300000000001</v>
+        <v>7.5528</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1075.4715</v>
+        <v>989.6564</v>
       </c>
       <c r="G12" t="n">
-        <v>2649.4401</v>
+        <v>2378.5506</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>944.9050999999999</v>
+        <v>966.0348</v>
       </c>
       <c r="J12" t="n">
-        <v>359.6765</v>
+        <v>401.2899</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>0.0091</v>
+        <v>0.0062</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1049,35 +1033,35 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>7.5528</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>989.6564</v>
-      </c>
+      <c r="C13" t="n">
+        <v>267.6329</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>721.2729</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>2378.5506</v>
+        <v>2312.0312</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>966.0348</v>
+        <v>952.8280999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>401.2899</v>
+        <v>450.343</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>717.9759</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
